--- a/Digital_Elevator_PO4_DGELV/Software Specification/Traceability/PO4_DGELV_DIGITAL ELEVATOR_RTM_V1_1.xlsx
+++ b/Digital_Elevator_PO4_DGELV/Software Specification/Traceability/PO4_DGELV_DIGITAL ELEVATOR_RTM_V1_1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ITI\Subjects\Software Engineering\26-1-2020\Digital_Elevator_PO4_DGELV\Input documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\MS\SWE\SWEGit\Digital_Elevator_PO4_DGELV\Software Specification\Traceability\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69B59473-BF76-424B-A853-29B836C2190A}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3519641-7F21-41D8-AD21-F354FBB7BF7A}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16410" windowHeight="7545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="41">
   <si>
     <t>CYRS Requirment ID</t>
   </si>
@@ -39,12 +39,6 @@
   </si>
   <si>
     <t>SRS Status</t>
-  </si>
-  <si>
-    <t>HSI Requirment ID</t>
-  </si>
-  <si>
-    <t>HSI Status</t>
   </si>
   <si>
     <t xml:space="preserve">Digital Elevator </t>
@@ -280,24 +274,6 @@
     <t>REQ_ PO4_DGELV _CYRS_09_V1_1</t>
   </si>
   <si>
-    <t>REQ_ PO4_DGELV _HSI_02_V1</t>
-  </si>
-  <si>
-    <t>REQ_ PO4_DGELV _HSI_03_V1</t>
-  </si>
-  <si>
-    <t>REQ_ PO4_DGELV _HSI_04_V1_1</t>
-  </si>
-  <si>
-    <t>REQ_ PO4_DGELV _HSI_05_V1</t>
-  </si>
-  <si>
-    <t>REQ_ PO4_DGELV _HSI_06_V1</t>
-  </si>
-  <si>
-    <t>REQ_ PO4_DGELV _HSI_08_V1</t>
-  </si>
-  <si>
     <r>
       <t>REQ_</t>
     </r>
@@ -321,67 +297,23 @@
     </r>
   </si>
   <si>
-    <r>
-      <t>REQ_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>PO4_DGELV _HSI_01_V1</t>
-    </r>
-  </si>
-  <si>
     <t>Proposed</t>
   </si>
   <si>
     <t>Logging system</t>
   </si>
   <si>
-    <t>Microcontroller</t>
-  </si>
-  <si>
-    <t>Simulation Model</t>
-  </si>
-  <si>
-    <t>elevator direction selection</t>
-  </si>
-  <si>
-    <t>System on, off and reset.</t>
-  </si>
-  <si>
-    <t>Screen for displaying data</t>
-  </si>
-  <si>
-    <t>Alarm subsystem</t>
-  </si>
-  <si>
-    <t>Display Login Status</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Username and password input hardware  </t>
-  </si>
-  <si>
-    <t>REQ_ PO4_DGELV _HSI_08_V2</t>
+    <t>REQ_ PO4_DGELV _SRS_01_V1_5</t>
+  </si>
+  <si>
+    <t>REQ_ PO4_DGELV _SRS_02_V1_5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -418,8 +350,14 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF8275"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -440,18 +378,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFDE9D9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -574,73 +506,19 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thick">
-        <color indexed="64"/>
-      </right>
-      <top style="thick">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thick">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thick">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -660,17 +538,6 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -686,12 +553,6 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -700,12 +561,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -714,15 +569,13 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1004,10 +857,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J100"/>
+  <dimension ref="A1:F100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F27" sqref="F18:F27"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1026,573 +879,407 @@
     <col min="12" max="12" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:10" ht="14.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+    <row r="1" spans="1:6" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:6" ht="14.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="14.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B3" s="22"/>
+      <c r="C3" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="14.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:6" ht="14.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="14.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="F10" s="17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="F11" s="17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="14.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="4" t="s">
+      <c r="E12" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="17"/>
+    </row>
+    <row r="14" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="17"/>
+    </row>
+    <row r="15" spans="1:6" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="19"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="20"/>
+    </row>
+    <row r="16" spans="1:6" ht="14.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="F16" s="17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="F17" s="17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="D18" s="8"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="8"/>
+    </row>
+    <row r="19" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="6"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="8"/>
+    </row>
+    <row r="20" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="6"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="8"/>
+    </row>
+    <row r="21" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="D21" s="8"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="8"/>
+    </row>
+    <row r="22" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="5"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="8"/>
+    </row>
+    <row r="23" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="6"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="8"/>
+    </row>
+    <row r="24" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="D24" s="8"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="8"/>
+    </row>
+    <row r="25" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="D25" s="8"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="8"/>
+    </row>
+    <row r="26" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="6"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="8"/>
+    </row>
+    <row r="27" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="6"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="8"/>
+    </row>
+    <row r="28" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="6"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="8"/>
+    </row>
+    <row r="29" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="6"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="8"/>
+    </row>
+    <row r="30" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="6"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="17" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" ht="14.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:10" ht="14.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="E9" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="G9" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="H9" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="I9" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="J9" s="1"/>
-    </row>
-    <row r="10" spans="1:10" ht="14.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="B10" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="C10" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="D10" s="26" t="s">
+      <c r="E30" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="F30" s="17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="6"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="E31" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="F31" s="17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="B32" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C32" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="D32" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E32" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="F32" s="14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="24"/>
+      <c r="B33" s="24"/>
+      <c r="C33" s="24"/>
+      <c r="D33" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E10" s="27" t="s">
+      <c r="E33" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="F10" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="G10" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="H10" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="I10" s="24" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="7"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="26" t="s">
+      <c r="F33" s="17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="24"/>
+      <c r="B34" s="24"/>
+      <c r="C34" s="24"/>
+      <c r="D34" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E11" s="27" t="s">
+      <c r="E34" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="F11" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="G11" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="H11" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="I11" s="28" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="7"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="E12" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="F12" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="G12" s="23" t="s">
-        <v>52</v>
-      </c>
-      <c r="H12" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="I12" s="28" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="7"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="23" t="s">
-        <v>53</v>
-      </c>
-      <c r="H13" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="I13" s="28" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="7"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="26"/>
-      <c r="G14" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="H14" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="I14" s="28" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="30"/>
-      <c r="B15" s="30"/>
-      <c r="C15" s="30"/>
-      <c r="D15" s="31"/>
-      <c r="E15" s="32"/>
-      <c r="F15" s="31"/>
-      <c r="G15" s="33" t="s">
-        <v>55</v>
-      </c>
-      <c r="H15" s="34" t="s">
-        <v>56</v>
-      </c>
-      <c r="I15" s="35" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="14.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="D16" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="E16" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="F16" s="26" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="B17" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="C17" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="D17" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="E17" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="F17" s="26" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="B18" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="C18" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="D18" s="10"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="23"/>
-      <c r="H18" s="23"/>
-      <c r="I18" s="28"/>
-    </row>
-    <row r="19" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="8"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="23"/>
-      <c r="H19" s="17"/>
-      <c r="I19" s="16"/>
-    </row>
-    <row r="20" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="8"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="23"/>
-      <c r="H20" s="17"/>
-      <c r="I20" s="16"/>
-    </row>
-    <row r="21" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="B21" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="C21" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="D21" s="10"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="14"/>
-      <c r="H21" s="14"/>
-      <c r="I21" s="16"/>
-    </row>
-    <row r="22" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="7"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="14"/>
-      <c r="H22" s="14"/>
-      <c r="I22" s="16"/>
-    </row>
-    <row r="23" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="8"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="14"/>
-      <c r="H23" s="14"/>
-      <c r="I23" s="16"/>
-    </row>
-    <row r="24" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="D24" s="10"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="H24" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="I24" s="24" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="B25" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="C25" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="D25" s="10"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="10"/>
-      <c r="G25" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="H25" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="I25" s="28" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="8"/>
-      <c r="B26" s="8"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="H26" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="I26" s="28" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="8"/>
-      <c r="B27" s="8"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="10"/>
-      <c r="G27" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="H27" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="I27" s="28" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="8"/>
-      <c r="B28" s="8"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="10"/>
-      <c r="G28" s="23" t="s">
-        <v>52</v>
-      </c>
-      <c r="H28" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="I28" s="28" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="8"/>
-      <c r="B29" s="8"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="12"/>
-      <c r="F29" s="10"/>
-      <c r="G29" s="23" t="s">
-        <v>53</v>
-      </c>
-      <c r="H29" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="I29" s="28" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="8"/>
-      <c r="B30" s="8"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="E30" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="F30" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="G30" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="H30" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="I30" s="28" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="8"/>
-      <c r="B31" s="8"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="E31" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="F31" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="G31" s="29" t="s">
-        <v>55</v>
-      </c>
-      <c r="H31" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="I31" s="28" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="19" t="s">
+      <c r="F34" s="17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="24"/>
+      <c r="B35" s="24"/>
+      <c r="C35" s="24"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="8"/>
+    </row>
+    <row r="36" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="6"/>
+      <c r="B36" s="6"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="8"/>
+    </row>
+    <row r="37" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="B32" s="19" t="s">
+      <c r="B37" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="C32" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="D32" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="E32" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="F32" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="G32" s="14"/>
-      <c r="H32" s="14"/>
-      <c r="I32" s="16"/>
-    </row>
-    <row r="33" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D33" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="E33" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="F33" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="G33" s="14"/>
-      <c r="H33" s="14"/>
-      <c r="I33" s="16"/>
-    </row>
-    <row r="34" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D34" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="E34" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="F34" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="G34" s="14"/>
-      <c r="H34" s="14"/>
-      <c r="I34" s="16"/>
-    </row>
-    <row r="35" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D35" s="10"/>
-      <c r="E35" s="12"/>
-      <c r="F35" s="10"/>
-      <c r="G35" s="14"/>
-      <c r="H35" s="14"/>
-      <c r="I35" s="16"/>
-    </row>
-    <row r="36" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="8"/>
-      <c r="B36" s="8"/>
-      <c r="C36" s="8"/>
-      <c r="D36" s="10"/>
-      <c r="E36" s="12"/>
-      <c r="F36" s="10"/>
-      <c r="G36" s="14"/>
-      <c r="H36" s="14"/>
-      <c r="I36" s="16"/>
-    </row>
-    <row r="37" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="B37" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="C37" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="D37" s="10"/>
-      <c r="E37" s="12"/>
-      <c r="F37" s="10"/>
-      <c r="G37" s="14"/>
-      <c r="H37" s="14"/>
-      <c r="I37" s="16"/>
-    </row>
-    <row r="38" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="8"/>
-      <c r="B38" s="8"/>
-      <c r="C38" s="8"/>
-      <c r="D38" s="10"/>
-      <c r="E38" s="12"/>
-      <c r="F38" s="10"/>
-      <c r="G38" s="14"/>
-      <c r="H38" s="14"/>
-      <c r="I38" s="16"/>
-    </row>
-    <row r="39" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="40" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="41" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="42" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="43" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="44" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="45" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="46" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="47" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="48" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="C37" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="D37" s="8"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="8"/>
+    </row>
+    <row r="38" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="6"/>
+      <c r="B38" s="6"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="8"/>
+    </row>
+    <row r="39" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="40" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="41" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="42" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="43" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="44" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="45" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="46" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="47" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="48" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="49" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="50" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="51" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
